--- a/static/finalOutput/listOfQty.xlsx
+++ b/static/finalOutput/listOfQty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="144">
   <si>
     <t>PART NO.</t>
   </si>
@@ -124,30 +124,27 @@
     <t>F9900SK</t>
   </si>
   <si>
+    <t>F9341JD</t>
+  </si>
+  <si>
+    <t>F9341JE</t>
+  </si>
+  <si>
+    <t>F9341JQ</t>
+  </si>
+  <si>
+    <t>F9341JA</t>
+  </si>
+  <si>
+    <t>CPA530Y-NBS4N-0NNNN</t>
+  </si>
+  <si>
     <t>F9275ZZ</t>
   </si>
   <si>
     <t>F9340ND</t>
   </si>
   <si>
-    <t>F9341JD</t>
-  </si>
-  <si>
-    <t>F9341JE</t>
-  </si>
-  <si>
-    <t>F9341JQ</t>
-  </si>
-  <si>
-    <t>F9341JA</t>
-  </si>
-  <si>
-    <t>CPA530Y-NBS4N-0NNNN/K1</t>
-  </si>
-  <si>
-    <t>CPA530Y-NBS4N-0NNNN</t>
-  </si>
-  <si>
     <t>CPA530Y-NCS4N-0NNNN/K1</t>
   </si>
   <si>
@@ -244,105 +241,93 @@
     <t>CPA110Y-NHSNN-NNNNN</t>
   </si>
   <si>
+    <t>F9350EW</t>
+  </si>
+  <si>
+    <t>F9350ER</t>
+  </si>
+  <si>
+    <t>F9350KZ</t>
+  </si>
+  <si>
+    <t>F9350RS</t>
+  </si>
+  <si>
+    <t>CPA110Y-NVSNN-NNNNN</t>
+  </si>
+  <si>
+    <t>CPA110Y-NZS5G-9NNNN</t>
+  </si>
+  <si>
+    <t>CPA430Y-NAT5G-9NNNN</t>
+  </si>
+  <si>
+    <t>CPA530Y-NAS4N-0NNNN</t>
+  </si>
+  <si>
+    <t>CPA530Y-NBZ4N-0NNNN</t>
+  </si>
+  <si>
+    <t>CPA530Y-NCS4N-0NNNN</t>
+  </si>
+  <si>
+    <t>CPA530Y-NCZ4N-0NNNN</t>
+  </si>
+  <si>
+    <t>F9940WG</t>
+  </si>
+  <si>
+    <t>F9940WJ</t>
+  </si>
+  <si>
+    <t>CPA530Y-NDS4N-0NNNN</t>
+  </si>
+  <si>
+    <t>CPA530Y-NDZ4N-0NNNN</t>
+  </si>
+  <si>
+    <t>CPA110Y-NFS5J-9NNNN</t>
+  </si>
+  <si>
+    <t>F9900AC</t>
+  </si>
+  <si>
+    <t>F9900BC</t>
+  </si>
+  <si>
+    <t>F9340EM</t>
+  </si>
+  <si>
+    <t>CPA110Y-NHSNN-NNNNN/A1</t>
+  </si>
+  <si>
+    <t>F9900TE</t>
+  </si>
+  <si>
+    <t>CPA430Y-NASNN-NNNNN/A1</t>
+  </si>
+  <si>
+    <t>CPA430Y-NHSNN-NNNNN</t>
+  </si>
+  <si>
+    <t>CPA530Y-NCS4N-0NNNN/A1</t>
+  </si>
+  <si>
+    <t>F9900SB</t>
+  </si>
+  <si>
+    <t>F9900SH</t>
+  </si>
+  <si>
     <t>F9900TM</t>
   </si>
   <si>
-    <t>CPA110Y-NVSNN-NNNNN</t>
-  </si>
-  <si>
-    <t>CPA110Y-NZS5G-9NNNN</t>
-  </si>
-  <si>
-    <t>CPA430Y-NAT5G-9NNNN</t>
-  </si>
-  <si>
-    <t>CPA530Y-NAS4N-0NNNN</t>
-  </si>
-  <si>
-    <t>CPA530Y-NBZ4N-0NNNN</t>
-  </si>
-  <si>
-    <t>CPA530Y-NCS4N-0NNNN</t>
-  </si>
-  <si>
-    <t>CPA530Y-NCZ4N-0NNNN</t>
-  </si>
-  <si>
-    <t>F9940WG</t>
-  </si>
-  <si>
-    <t>F9940WJ</t>
-  </si>
-  <si>
-    <t>CPA530Y-NDS4N-0NNNN</t>
-  </si>
-  <si>
-    <t>CPA530Y-NDZ4N-0NNNN</t>
-  </si>
-  <si>
-    <t>CPA110Y-NFS5G-9NNNN/A1</t>
-  </si>
-  <si>
-    <t>F9275ED</t>
-  </si>
-  <si>
-    <t>F9900AC</t>
-  </si>
-  <si>
-    <t>F9900BC</t>
-  </si>
-  <si>
     <t>C1016EZ</t>
   </si>
   <si>
     <t>F9203ZA</t>
   </si>
   <si>
-    <t>F9275EF</t>
-  </si>
-  <si>
-    <t>F9275EG</t>
-  </si>
-  <si>
-    <t>Y9400ET</t>
-  </si>
-  <si>
-    <t>F9340EM</t>
-  </si>
-  <si>
-    <t>CPA110Y-NHSNN-NNNNN/A1</t>
-  </si>
-  <si>
-    <t>F9900TE</t>
-  </si>
-  <si>
-    <t>CPA430Y-NASNN-NNNNN/A1</t>
-  </si>
-  <si>
-    <t>F9340NJ</t>
-  </si>
-  <si>
-    <t>CPA430Y-NHSNN-NNNNN</t>
-  </si>
-  <si>
-    <t>F9900MK</t>
-  </si>
-  <si>
-    <t>CPA530Y-NCS4N-0NNNN/A1</t>
-  </si>
-  <si>
-    <t>F9900SB</t>
-  </si>
-  <si>
-    <t>F9900SH</t>
-  </si>
-  <si>
-    <t>CPA110Y-NHSNN-NNNNN/K3</t>
-  </si>
-  <si>
-    <t>CPA110Y-NMSNN-NNNNN/K3</t>
-  </si>
-  <si>
     <t>TERMINAL COVER</t>
   </si>
   <si>
@@ -418,18 +403,18 @@
     <t>U-BOLT</t>
   </si>
   <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>CPA</t>
+  </si>
+  <si>
     <t>LABEL</t>
   </si>
   <si>
-    <t>Spring</t>
-  </si>
-  <si>
-    <t>Glass</t>
-  </si>
-  <si>
-    <t>CPA</t>
-  </si>
-  <si>
     <t>FLANGE</t>
   </si>
   <si>
@@ -461,9 +446,6 @@
   </si>
   <si>
     <t>SOLID SUB-MATERIALS</t>
-  </si>
-  <si>
-    <t>NEEDLE ASSY</t>
   </si>
 </sst>
 </file>
@@ -821,7 +803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -846,7 +828,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D2">
         <v>1505</v>
@@ -860,7 +842,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D3">
         <v>1505</v>
@@ -874,7 +856,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D4">
         <v>1505</v>
@@ -888,7 +870,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D5">
         <v>1517</v>
@@ -902,7 +884,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D6">
         <v>4781</v>
@@ -916,7 +898,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D7">
         <v>1505</v>
@@ -930,7 +912,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D8">
         <v>1517</v>
@@ -944,7 +926,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D9">
         <v>8618</v>
@@ -958,7 +940,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D10">
         <v>3010</v>
@@ -972,7 +954,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D11">
         <v>1505</v>
@@ -986,7 +968,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D12">
         <v>2491</v>
@@ -1000,7 +982,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D13">
         <v>1438</v>
@@ -1014,7 +996,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D14">
         <v>1517</v>
@@ -1028,7 +1010,7 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D15">
         <v>230</v>
@@ -1042,7 +1024,7 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D16">
         <v>230</v>
@@ -1056,7 +1038,7 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D17">
         <v>1517</v>
@@ -1070,7 +1052,7 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D18">
         <v>1493</v>
@@ -1084,7 +1066,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D19">
         <v>3034</v>
@@ -1098,7 +1080,7 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D20">
         <v>217</v>
@@ -1112,7 +1094,7 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D21">
         <v>1517</v>
@@ -1126,7 +1108,7 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D22">
         <v>3034</v>
@@ -1140,7 +1122,7 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D23">
         <v>4443</v>
@@ -1154,7 +1136,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D24">
         <v>4551</v>
@@ -1168,7 +1150,7 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D25">
         <v>1505</v>
@@ -1182,7 +1164,7 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D26">
         <v>1505</v>
@@ -1196,7 +1178,7 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D27">
         <v>1517</v>
@@ -1210,7 +1192,7 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D28">
         <v>1517</v>
@@ -1224,7 +1206,7 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D29">
         <v>1505</v>
@@ -1238,7 +1220,7 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D30">
         <v>3577</v>
@@ -1252,7 +1234,7 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D31">
         <v>508</v>
@@ -1266,7 +1248,7 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D32">
         <v>543</v>
@@ -1280,7 +1262,7 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D33">
         <v>592</v>
@@ -1294,7 +1276,7 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D34">
         <v>543</v>
@@ -1308,10 +1290,10 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D35">
-        <v>70</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1322,10 +1304,10 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D36">
-        <v>83</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1336,7 +1318,7 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="D37">
         <v>1517</v>
@@ -1350,7 +1332,7 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D38">
         <v>1517</v>
@@ -1364,77 +1346,77 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D39">
-        <v>1517</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D40">
-        <v>1517</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D42">
-        <v>172</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D44">
         <v>24</v>
@@ -1448,7 +1430,7 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D45">
         <v>24</v>
@@ -1462,10 +1444,10 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D46">
-        <v>24</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1476,113 +1458,113 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D47">
-        <v>1725</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D48">
-        <v>1896</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D49">
-        <v>1738</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D50">
-        <v>1738</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D51">
-        <v>1787</v>
+        <v>929</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="D52">
-        <v>929</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D53">
-        <v>1830</v>
+        <v>929</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="D54">
-        <v>929</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
@@ -1596,72 +1578,72 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D56">
-        <v>3652</v>
+        <v>440</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D57">
-        <v>440</v>
+        <v>925</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="D58">
-        <v>925</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D59">
-        <v>3700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="D60">
-        <v>702</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1672,21 +1654,21 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="D61">
-        <v>72</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="D62">
         <v>1275</v>
@@ -1694,72 +1676,72 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="D63">
-        <v>1275</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D64">
-        <v>36</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="D65">
-        <v>1275</v>
+        <v>715</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D66">
-        <v>712</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1">
-        <v>244</v>
+        <v>443</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="D67">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1770,21 +1752,21 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D68">
-        <v>30</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D69">
         <v>1251</v>
@@ -1792,105 +1774,105 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D70">
-        <v>1251</v>
+        <v>586</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D71">
-        <v>586</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D72">
-        <v>2502</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1">
-        <v>481</v>
+        <v>532</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D73">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1">
-        <v>534</v>
+        <v>604</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D74">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D75">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1">
-        <v>899</v>
+        <v>608</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D76">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1">
-        <v>999</v>
+        <v>609</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
@@ -1904,170 +1886,170 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1">
-        <v>1044</v>
+        <v>899</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1">
-        <v>1091</v>
+        <v>999</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D79">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1">
-        <v>1232</v>
+        <v>1044</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D80">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1">
-        <v>1275</v>
+        <v>1091</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D81">
-        <v>246</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1">
-        <v>1369</v>
+        <v>1232</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1">
-        <v>1381</v>
+        <v>1275</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D83">
-        <v>35</v>
+        <v>246</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1">
-        <v>1407</v>
+        <v>1369</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="D84">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1">
-        <v>1412</v>
+        <v>1381</v>
       </c>
       <c r="B85" t="s">
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D85">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1">
-        <v>1506</v>
+        <v>1407</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D86">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1">
-        <v>1550</v>
+        <v>1412</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D87">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1">
-        <v>1572</v>
+        <v>1506</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D88">
-        <v>49</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1">
-        <v>1574</v>
+        <v>1550</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D89">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2078,7 +2060,7 @@
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D90">
         <v>68</v>
@@ -2086,240 +2068,170 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1">
-        <v>1596</v>
+        <v>1576</v>
       </c>
       <c r="B91" t="s">
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="D91">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1">
-        <v>1597</v>
+        <v>1721</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D92">
-        <v>61</v>
+        <v>485</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1">
-        <v>1598</v>
+        <v>1747</v>
       </c>
       <c r="B93" t="s">
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D93">
-        <v>49</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1">
-        <v>1599</v>
+        <v>2103</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D94">
-        <v>49</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1">
-        <v>1600</v>
+        <v>2139</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D95">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1">
-        <v>1727</v>
+        <v>2251</v>
       </c>
       <c r="B96" t="s">
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D96">
-        <v>485</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1">
-        <v>1753</v>
+        <v>2392</v>
       </c>
       <c r="B97" t="s">
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D97">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1">
-        <v>2109</v>
+        <v>2645</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D98">
-        <v>99</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1">
-        <v>2145</v>
+        <v>2647</v>
       </c>
       <c r="B99" t="s">
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="D99">
-        <v>58</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1">
-        <v>2251</v>
+        <v>3048</v>
       </c>
       <c r="B100" t="s">
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D100">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1">
-        <v>2264</v>
+        <v>3121</v>
       </c>
       <c r="B101" t="s">
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D101">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1">
-        <v>2304</v>
+        <v>3122</v>
       </c>
       <c r="B102" t="s">
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D102">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="1">
-        <v>2408</v>
-      </c>
-      <c r="B103" t="s">
-        <v>104</v>
-      </c>
-      <c r="C103" t="s">
-        <v>137</v>
-      </c>
-      <c r="D103">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="1">
-        <v>2661</v>
-      </c>
-      <c r="B104" t="s">
-        <v>105</v>
-      </c>
-      <c r="C104" t="s">
-        <v>132</v>
-      </c>
-      <c r="D104">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="1">
-        <v>2663</v>
-      </c>
-      <c r="B105" t="s">
-        <v>106</v>
-      </c>
-      <c r="C105" t="s">
-        <v>117</v>
-      </c>
-      <c r="D105">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="1">
-        <v>3101</v>
-      </c>
-      <c r="B106" t="s">
-        <v>107</v>
-      </c>
-      <c r="C106" t="s">
-        <v>137</v>
-      </c>
-      <c r="D106">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="1">
-        <v>3199</v>
-      </c>
-      <c r="B107" t="s">
-        <v>108</v>
-      </c>
-      <c r="C107" t="s">
-        <v>137</v>
-      </c>
-      <c r="D107">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/static/finalOutput/listOfQty.xlsx
+++ b/static/finalOutput/listOfQty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="94">
   <si>
     <t>PART NO.</t>
   </si>
@@ -58,7 +58,7 @@
     <t>F9300AF</t>
   </si>
   <si>
-    <t>F9900GD</t>
+    <t>F9900GE</t>
   </si>
   <si>
     <t>F9900RJ</t>
@@ -79,15 +79,24 @@
     <t>F9342MK</t>
   </si>
   <si>
-    <t>F9340SB</t>
-  </si>
-  <si>
-    <t>D0114PB</t>
+    <t>F9900TB</t>
+  </si>
+  <si>
+    <t>F9900EA</t>
+  </si>
+  <si>
+    <t>F9275ED</t>
   </si>
   <si>
     <t>D0114RZ</t>
   </si>
   <si>
+    <t>F9900AC</t>
+  </si>
+  <si>
+    <t>F9900BC</t>
+  </si>
+  <si>
     <t>F9300TE</t>
   </si>
   <si>
@@ -130,6 +139,27 @@
     <t>G9330DB</t>
   </si>
   <si>
+    <t>F9275ZZ</t>
+  </si>
+  <si>
+    <t>F9340ND</t>
+  </si>
+  <si>
+    <t>C1016EZ</t>
+  </si>
+  <si>
+    <t>F9203ZA</t>
+  </si>
+  <si>
+    <t>F9275EF</t>
+  </si>
+  <si>
+    <t>F9275EG</t>
+  </si>
+  <si>
+    <t>Y9400ET</t>
+  </si>
+  <si>
     <t>F9341JD</t>
   </si>
   <si>
@@ -142,7 +172,25 @@
     <t>F9341JA</t>
   </si>
   <si>
-    <t>CPA110Y-NFS5G-9NNNN/MG1</t>
+    <t>CPA110Y-NVSNN-NNNNN</t>
+  </si>
+  <si>
+    <t>F9940WF</t>
+  </si>
+  <si>
+    <t>F9900SF</t>
+  </si>
+  <si>
+    <t>F9900SN</t>
+  </si>
+  <si>
+    <t>F9900SK</t>
+  </si>
+  <si>
+    <t>F9900MK</t>
+  </si>
+  <si>
+    <t>CPA530Y-NCS4N-0NNNN</t>
   </si>
   <si>
     <t>TERMINAL COVER</t>
@@ -187,12 +235,15 @@
     <t>NUT</t>
   </si>
   <si>
+    <t>FLANGE</t>
+  </si>
+  <si>
+    <t>GASCKET</t>
+  </si>
+  <si>
     <t>VENT PLUG</t>
   </si>
   <si>
-    <t>VENT SCREW</t>
-  </si>
-  <si>
     <t>PLUG</t>
   </si>
   <si>
@@ -226,6 +277,15 @@
     <t>PLUG RED</t>
   </si>
   <si>
+    <t>LABEL</t>
+  </si>
+  <si>
+    <t>SOLID SUB-MATERIALS</t>
+  </si>
+  <si>
+    <t>NEEDLE ASSY</t>
+  </si>
+  <si>
     <t>Spring</t>
   </si>
   <si>
@@ -233,6 +293,9 @@
   </si>
   <si>
     <t>CPA</t>
+  </si>
+  <si>
+    <t>PIPE ASSY</t>
   </si>
 </sst>
 </file>
@@ -590,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,10 +678,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -629,10 +692,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -643,10 +706,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -657,10 +720,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -671,10 +734,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -685,10 +748,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -699,10 +762,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -713,10 +776,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D9">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -727,10 +790,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -741,10 +804,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -755,10 +818,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -769,10 +832,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -783,10 +846,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -797,10 +860,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -811,10 +874,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -825,10 +888,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -839,10 +902,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -853,10 +916,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -867,248 +930,248 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D20">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D25">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D29">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D30">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1119,10 +1182,10 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1133,38 +1196,262 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D40">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>88</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>89</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>90</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>91</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>93</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>100</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
